--- a/biology/Zoologie/Barbus_titteya/Barbus_titteya.xlsx
+++ b/biology/Zoologie/Barbus_titteya/Barbus_titteya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Puntius titteya
 Puntius titteya, le barbus cerise, anciennement Barbus titteya, est une espèce de poissons de la famille des Cyprinidae et de l'ordre des Cypriniformes. Un des barbus les plus renommés, particulièrement pour la brillante coloration cerise du mâle en état de frayer.
@@ -512,11 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans les cours d'eau tranquilles et ombragés de Ceylan (Sri Lanka).
-Habitat
-Apparemment, on trouve à l'état sauvage deux variétés de couleurs différentes, dont l'une habite les plaines plus chaudes. Parmi les spécimens élevés en aquarium, une seule de ces variétés semble prévaloir. Cette espèce de poisson est originaire du Sri Lanka . Elle y vit dans les ruisseaux ombragés .
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Taille</t>
+          <t>Répartition</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce ne dépasse pas les 5 cm.
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apparemment, on trouve à l'état sauvage deux variétés de couleurs différentes, dont l'une habite les plaines plus chaudes. Parmi les spécimens élevés en aquarium, une seule de ces variétés semble prévaloir. Cette espèce de poisson est originaire du Sri Lanka . Elle y vit dans les ruisseaux ombragés .
 </t>
         </is>
       </c>
@@ -573,12 +591,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Très robuste, il jouit d'une bonne longévité.
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce ne dépasse pas les 5 cm.
 </t>
         </is>
       </c>
@@ -604,12 +624,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Reproduction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pendant le frai, les poissons mâles sont extrêmement ardents et il faudra procurer à la femelle un bon couvert de plantes, sans quoi elle pourrait être tuée. On obtient souvent de bons résultats en utilisant deux femelles par mâle.
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très robuste, il jouit d'une bonne longévité.
 </t>
         </is>
       </c>
@@ -635,10 +657,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant le frai, les poissons mâles sont extrêmement ardents et il faudra procurer à la femelle un bon couvert de plantes, sans quoi elle pourrait être tuée. On obtient souvent de bons résultats en utilisant deux femelles par mâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Barbus_titteya</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Barbus_titteya</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caractéristiques physico-chimiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans un pH de 6,5 à 7.
 </t>
